--- a/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.6562640112814851/Performance_0.6562640112814851.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/PERFORMANCE/XCG_0.6562640112814851/Performance_0.6562640112814851.xlsx
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>625.8161767670306</v>
+        <v>623.5719073377319</v>
       </c>
     </row>
     <row r="3">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>119.82488825243271</v>
+        <v>119.578238986981</v>
       </c>
     </row>
     <row r="4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>212.8061579549201</v>
+        <v>211.96821320265644</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>958.4472229743833</v>
+        <v>955.1183595273691</v>
       </c>
     </row>
     <row r="6">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1102.2143064205407</v>
+        <v>1098.3861134564745</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1078.5525579416035</v>
+        <v>1075.03544594939</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2053.202679681859</v>
+        <v>2045.8395910030574</v>
       </c>
     </row>
     <row r="10">
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>393.12627379407064</v>
+        <v>392.31705704390095</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>698.1829329229663</v>
+        <v>695.4337703499227</v>
       </c>
     </row>
     <row r="12">
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3144.5118863988955</v>
+        <v>3133.5904183968805</v>
       </c>
     </row>
     <row r="13">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>3616.1886693587294</v>
+        <v>3603.628981156412</v>
       </c>
     </row>
     <row r="14">
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>3538.5582609632665</v>
+        <v>3527.019179623983</v>
       </c>
     </row>
     <row r="15">
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>50.776504271753254</v>
+        <v>50.66737354454432</v>
       </c>
     </row>
     <row r="17">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>52.64440870817737</v>
+        <v>52.559158362572774</v>
       </c>
     </row>
     <row r="18">
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>53.31532948534091</v>
+        <v>53.200742221771534</v>
       </c>
     </row>
     <row r="19">
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>47.00308792361588</v>
+        <v>46.91146632312207</v>
       </c>
     </row>
     <row r="20">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>57.42906008967642</v>
+        <v>57.35160359033833</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>61.50992986608229</v>
+        <v>61.412218467522294</v>
       </c>
     </row>
     <row r="22">
@@ -1252,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>98.7016281740344</v>
+        <v>98.4894950109933</v>
       </c>
     </row>
     <row r="24">
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>102.3325439251828</v>
+        <v>102.16683051040066</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>103.63670958273612</v>
+        <v>103.41396976154294</v>
       </c>
     </row>
     <row r="26">
@@ -1285,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>91.36669358802223</v>
+        <v>91.18859544451374</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>111.63316216135806</v>
+        <v>111.482598771716</v>
       </c>
     </row>
     <row r="28">
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>119.56573840059193</v>
+        <v>119.37580263665241</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0367867867868017</v>
+        <v>1.0373373373373158</v>
       </c>
     </row>
     <row r="31">
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0499999999999998</v>
+        <v>1.0499999999999996</v>
       </c>
     </row>
     <row r="32">
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9256857792347766</v>
+        <v>0.9258712864182658</v>
       </c>
     </row>
     <row r="33">
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1310164201599824</v>
+        <v>1.1319237524699706</v>
       </c>
     </row>
     <row r="34">
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>1.211385674304877</v>
+        <v>1.2120663490388268</v>
       </c>
     </row>
     <row r="35">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>27.830301440022033</v>
+        <v>27.77749614305624</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>8369.350137764595</v>
+        <v>8393.749794018895</v>
       </c>
     </row>
     <row r="3">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>27458.49782731166</v>
+        <v>27538.54919297537</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>7923.242693986824</v>
+        <v>7947.17187031602</v>
       </c>
     </row>
     <row r="5">
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>25994.890728303224</v>
+        <v>26073.398524658856</v>
       </c>
     </row>
     <row r="6">
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>14.990045542336876</v>
+        <v>14.93348058933162</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2336828599848</v>
+        <v>17.24699395579246</v>
       </c>
     </row>
     <row r="8">
@@ -1488,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>249.96946939513367</v>
+        <v>250.13764713378248</v>
       </c>
     </row>
     <row r="9">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4538.080014200827</v>
+        <v>4538.252897204196</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>14888.713957351792</v>
+        <v>14889.281158806418</v>
       </c>
     </row>
     <row r="12">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>3979.406608021969</v>
+        <v>3979.983551001961</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>13055.795958077328</v>
+        <v>13057.68881562323</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>14279.396208761882</v>
+        <v>14283.374327018795</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>3210.1359697937714</v>
+        <v>3211.0302863546335</v>
       </c>
     </row>
     <row r="6">
@@ -1625,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>2363691.733595347</v>
+        <v>2363691.8983719237</v>
       </c>
     </row>
     <row r="8">
@@ -1636,7 +1636,7 @@
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>3213.7252852761817</v>
+        <v>3213.725509309901</v>
       </c>
     </row>
     <row r="9">
@@ -1647,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>2091300.985950604</v>
+        <v>2091856.2522835685</v>
       </c>
     </row>
     <row r="10">
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>2843.3770623081796</v>
+        <v>2844.132014161227</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>57.08700435560604</v>
+        <v>57.491960718556754</v>
       </c>
     </row>
     <row r="13">
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>119.56095372308425</v>
+        <v>119.83166076860908</v>
       </c>
     </row>
     <row r="14">
@@ -1696,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>110.9682590065776</v>
+        <v>111.75543120237812</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>232.4079014055633</v>
+        <v>232.93411380507166</v>
       </c>
     </row>
     <row r="16">
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>74.3551453381385</v>
+        <v>74.88259619254382</v>
       </c>
     </row>
     <row r="18">
@@ -1734,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>155.72594372057551</v>
+        <v>156.07853686213144</v>
       </c>
     </row>
     <row r="19">
@@ -1745,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>144.5348397501612</v>
+        <v>145.56012218853004</v>
       </c>
     </row>
     <row r="20">
@@ -1756,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>302.70701803135626</v>
+        <v>303.3924042676421</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23250127735115064</v>
+        <v>0.2341505646577856</v>
       </c>
     </row>
     <row r="23">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.48693924552319906</v>
+        <v>0.4880417701543367</v>
       </c>
     </row>
     <row r="24">
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>14.447411453985788</v>
+        <v>14.439267306335866</v>
       </c>
     </row>
     <row r="26">
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>61.99974175188035</v>
+        <v>61.90042620149292</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>339.16266079289676</v>
+        <v>339.3295571773199</v>
       </c>
     </row>
     <row r="3">
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>75.20535511995408</v>
+        <v>75.22740586236114</v>
       </c>
     </row>
     <row r="4">
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>253.21962981057425</v>
+        <v>253.20861199949513</v>
       </c>
     </row>
     <row r="5">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>667.5876457234251</v>
+        <v>667.7655750391762</v>
       </c>
     </row>
     <row r="6">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1112.6460762057086</v>
+        <v>1112.9426250652937</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1112.738388428139</v>
+        <v>1113.2859487444875</v>
       </c>
     </row>
     <row r="9">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>246.7367293961748</v>
+        <v>246.80907435157854</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>830.7730636829863</v>
+        <v>830.7369160088422</v>
       </c>
     </row>
     <row r="11">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2190.2481815073</v>
+        <v>2190.8319391049085</v>
       </c>
     </row>
     <row r="12">
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3650.4136358455007</v>
+        <v>3651.3865651748474</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>43.161300848727706</v>
+        <v>43.16762798441867</v>
       </c>
     </row>
     <row r="15">
@@ -2046,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>49.63549597603685</v>
+        <v>49.64277218208146</v>
       </c>
     </row>
     <row r="16">
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>53.08840004393507</v>
+        <v>53.09618242083496</v>
       </c>
     </row>
     <row r="17">
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>56.10969110334601</v>
+        <v>56.117916379744265</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>83.89885694137133</v>
+        <v>83.91115590923715</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>96.48368548257702</v>
+        <v>96.4978292956227</v>
       </c>
     </row>
     <row r="21">
@@ -2106,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>103.19559403788674</v>
+        <v>103.21072176836168</v>
       </c>
     </row>
     <row r="22">
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>109.06851402378274</v>
+        <v>109.08450268200829</v>
       </c>
     </row>
     <row r="23">
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1499999999999997</v>
+        <v>1.1499999999999995</v>
       </c>
     </row>
     <row r="25">
@@ -2144,7 +2144,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>1.2299999999999998</v>
+        <v>1.2299999999999995</v>
       </c>
     </row>
     <row r="26">
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>10.29917051068449</v>
+        <v>10.302457437225677</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>111.28240330260783</v>
+        <v>111.25907659214727</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>19616.092150401524</v>
+        <v>19615.2457709572</v>
       </c>
     </row>
     <row r="5">
@@ -2243,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>18682.9264221969</v>
+        <v>18682.896798373153</v>
       </c>
     </row>
     <row r="6">
@@ -2254,7 +2254,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>982.2943701833586</v>
+        <v>981.4479907390346</v>
       </c>
     </row>
     <row r="7">
@@ -2265,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>933.1796516741907</v>
+        <v>932.3755912020829</v>
       </c>
     </row>
     <row r="8">
@@ -2314,7 +2314,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4154108707095163</v>
+        <v>0.4138313277667379</v>
       </c>
     </row>
     <row r="13">
@@ -2325,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>40.530609265900424</v>
+        <v>40.50581128228542</v>
       </c>
     </row>
     <row r="14">
@@ -2336,7 +2336,7 @@
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>72.1150464052059</v>
+        <v>72.1461764110008</v>
       </c>
     </row>
     <row r="15">
@@ -2347,7 +2347,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>45.002569203068575</v>
+        <v>45.00256920306859</v>
       </c>
     </row>
     <row r="16">
@@ -2358,7 +2358,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>15.020697945302686</v>
+        <v>15.015860236566908</v>
       </c>
     </row>
     <row r="17">
@@ -2402,7 +2402,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>3.5867091019895554</v>
+        <v>3.586709101989584</v>
       </c>
     </row>
     <row r="21">
@@ -2413,7 +2413,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>0.33900964350769414</v>
+        <v>0.3390936960197166</v>
       </c>
     </row>
     <row r="22">
@@ -2429,7 +2429,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.38789335242463796</v>
+        <v>0.3870855768200929</v>
       </c>
     </row>
     <row r="24">
@@ -2440,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>12.342966153895102</v>
+        <v>12.33533750273033</v>
       </c>
     </row>
     <row r="25">
@@ -2451,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>14.189761361042049</v>
+        <v>14.188243922983386</v>
       </c>
     </row>
     <row r="26">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>4.870660731684019</v>
+        <v>4.867964803123968</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>17.362249126943794</v>
+        <v>17.351522866299064</v>
       </c>
     </row>
     <row r="29">
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>5.666666666666654</v>
+        <v>5.666666666666657</v>
       </c>
     </row>
     <row r="30">
@@ -2528,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16220590995160222</v>
+        <v>0.16225525352380288</v>
       </c>
     </row>
     <row r="33">
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>7.183793591907363</v>
+        <v>7.168178191737609</v>
       </c>
     </row>
     <row r="35">
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>181.10169822460267</v>
+        <v>180.97775037913965</v>
       </c>
     </row>
     <row r="36">
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>178.99809723839184</v>
+        <v>179.0897634909395</v>
       </c>
     </row>
     <row r="37">
@@ -2577,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>56.83541960756659</v>
+        <v>56.76505557108223</v>
       </c>
     </row>
     <row r="38">
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>77.63386988249684</v>
+        <v>77.5898448408565</v>
       </c>
     </row>
     <row r="39">
@@ -2599,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>259.61103241877333</v>
+        <v>259.00559335036576</v>
       </c>
     </row>
     <row r="40">
@@ -2610,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>31.92466606325337</v>
+        <v>31.985008275117764</v>
       </c>
     </row>
     <row r="41">
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>134.04729226587375</v>
+        <v>133.96733994626044</v>
       </c>
     </row>
     <row r="42">
@@ -2632,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="n">
-        <v>5.413936719953142</v>
+        <v>5.397080734745316</v>
       </c>
     </row>
     <row r="43">
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4298456613717576</v>
+        <v>0.42997642183803464</v>
       </c>
     </row>
     <row r="44">
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>19608.922280279203</v>
+        <v>19608.104211383514</v>
       </c>
     </row>
     <row r="46">
@@ -2670,7 +2670,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>19427.8205820546</v>
+        <v>19427.12646100437</v>
       </c>
     </row>
     <row r="47">
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="n">
-        <v>19248.822484816203</v>
+        <v>19248.03669751343</v>
       </c>
     </row>
     <row r="48">
@@ -2692,7 +2692,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>19191.987065208632</v>
+        <v>19191.271641942345</v>
       </c>
     </row>
     <row r="49">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>19114.353195326134</v>
+        <v>19113.68179710149</v>
       </c>
     </row>
     <row r="50">
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>18854.742162907358</v>
+        <v>18854.67620375112</v>
       </c>
     </row>
     <row r="51">
@@ -2725,7 +2725,7 @@
         <v>34</v>
       </c>
       <c r="C51" t="n">
-        <v>18822.817496844105</v>
+        <v>18822.691195476</v>
       </c>
     </row>
     <row r="52">
@@ -2736,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="n">
-        <v>18688.770204578228</v>
+        <v>18688.72385552974</v>
       </c>
     </row>
     <row r="53">
@@ -2747,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>18683.356267858275</v>
+        <v>18683.326774794994</v>
       </c>
     </row>
     <row r="54">
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>18682.9264221969</v>
+        <v>18682.896798373153</v>
       </c>
     </row>
     <row r="55">
@@ -2790,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>115.22490267459915</v>
+        <v>115.02500140932993</v>
       </c>
     </row>
     <row r="59">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17421391935747446</v>
+        <v>0.17391167928524442</v>
       </c>
     </row>
     <row r="61">
@@ -2823,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>1.20844289540482</v>
+        <v>1.208461712892199</v>
       </c>
     </row>
     <row r="62">
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1.9106190453027914</v>
+        <v>1.9193140733208367</v>
       </c>
     </row>
     <row r="63">
@@ -2845,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>0.05063638279466469</v>
+        <v>0.050569482307132846</v>
       </c>
     </row>
     <row r="64">
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07508800753670229</v>
+        <v>0.07550344191321412</v>
       </c>
     </row>
     <row r="65">
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>23.865110987591077</v>
+        <v>23.897055254642087</v>
       </c>
     </row>
     <row r="66">
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>25.445062507070777</v>
+        <v>25.420219591140665</v>
       </c>
     </row>
     <row r="67">
@@ -2889,7 +2889,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>15377.590724931884</v>
+        <v>15377.590724236197</v>
       </c>
     </row>
     <row r="68">
@@ -2900,7 +2900,7 @@
         <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>10646.507613285912</v>
+        <v>10656.52746730024</v>
       </c>
     </row>
     <row r="69">
@@ -2922,7 +2922,7 @@
         <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>2216.235220102966</v>
+        <v>2220.771198431734</v>
       </c>
     </row>
     <row r="71">
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6728799224831805</v>
+        <v>0.6728518504592695</v>
       </c>
     </row>
     <row r="78">
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1309743240647236</v>
+        <v>1.130933916388408</v>
       </c>
     </row>
     <row r="79">
@@ -3009,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03971735142905575</v>
+        <v>0.039630429760819486</v>
       </c>
     </row>
     <row r="80">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08062755546083834</v>
+        <v>0.08074946075331288</v>
       </c>
     </row>
     <row r="81">
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>16.94171182801798</v>
+        <v>16.9781618448277</v>
       </c>
     </row>
     <row r="82">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>14.027143916251434</v>
+        <v>14.005467105760326</v>
       </c>
     </row>
     <row r="83">
@@ -3075,7 +3075,7 @@
         <v>127</v>
       </c>
       <c r="C85" t="n">
-        <v>2551.705174305079</v>
+        <v>2546.130929107117</v>
       </c>
     </row>
     <row r="86">
@@ -3086,7 +3086,7 @@
         <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>3104.1146041032994</v>
+        <v>3108.113126312655</v>
       </c>
     </row>
     <row r="87">
@@ -3107,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>304.8107242308637</v>
+        <v>304.9752266965786</v>
       </c>
     </row>
     <row r="90">
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>305.29371501420985</v>
+        <v>305.4572319498653</v>
       </c>
     </row>
     <row r="91">
@@ -3129,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.49032319004812</v>
+        <v>0.4905878112288992</v>
       </c>
     </row>
     <row r="92">
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.491100136404754</v>
+        <v>0.4913631722468156</v>
       </c>
     </row>
     <row r="93">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>0.35179535638432624</v>
+        <v>0.35140338915195246</v>
       </c>
     </row>
     <row r="94">
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>0.34583757140936616</v>
+        <v>0.34545211545645116</v>
       </c>
     </row>
     <row r="95">
@@ -3173,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02847437569398492</v>
+        <v>0.028448641646224473</v>
       </c>
     </row>
     <row r="96">
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.028413521689037196</v>
+        <v>0.028381743970715367</v>
       </c>
     </row>
     <row r="97">
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>12.35480490125869</v>
+        <v>12.352202735085193</v>
       </c>
     </row>
     <row r="98">
@@ -3206,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>12.171584191297232</v>
+        <v>12.171631024960725</v>
       </c>
     </row>
     <row r="99">
@@ -3217,7 +3217,7 @@
         <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>3466.7494218426095</v>
+        <v>3467.355854822098</v>
       </c>
     </row>
     <row r="100">
@@ -3228,7 +3228,7 @@
         <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>3470.3122078048923</v>
+        <v>3470.1452784265944</v>
       </c>
     </row>
     <row r="101">
@@ -3239,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>3466.7494218426095</v>
+        <v>3467.355854822098</v>
       </c>
     </row>
     <row r="102">
@@ -3250,7 +3250,7 @@
         <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>3470.3122078048923</v>
+        <v>3470.1452784265944</v>
       </c>
     </row>
     <row r="103">
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>0.39387604303722407</v>
+        <v>0.39385996398648065</v>
       </c>
     </row>
     <row r="110">
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.39175450097836145</v>
+        <v>0.3917403686362074</v>
       </c>
     </row>
     <row r="111">
@@ -3337,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>0.029188584626190586</v>
+        <v>0.02911243565306122</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02914063894578237</v>
+        <v>0.029057499165120012</v>
       </c>
     </row>
     <row r="113">
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>13.494180964287098</v>
+        <v>13.528925187854066</v>
       </c>
     </row>
     <row r="114">
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>13.443579658882584</v>
+        <v>13.481558285870795</v>
       </c>
     </row>
     <row r="115">
@@ -3381,7 +3381,7 @@
         <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>989.8170370124006</v>
+        <v>987.3727410120214</v>
       </c>
     </row>
     <row r="116">
@@ -3392,7 +3392,7 @@
         <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>412.58752022104414</v>
+        <v>408.8265036644015</v>
       </c>
     </row>
     <row r="117">
@@ -3403,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="C117" t="n">
-        <v>3120.965294760522</v>
+        <v>3118.216791928693</v>
       </c>
     </row>
     <row r="118">
@@ -3414,7 +3414,7 @@
         <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>3116.4435168936707</v>
+        <v>3112.977486570279</v>
       </c>
     </row>
     <row r="119">
@@ -3479,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6585728171604129</v>
+        <v>0.6585482674191933</v>
       </c>
     </row>
     <row r="126">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8497282193349817</v>
+        <v>0.8496983723392678</v>
       </c>
     </row>
     <row r="127">
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03886149755713062</v>
+        <v>0.038907527928531124</v>
       </c>
     </row>
     <row r="128">
@@ -3512,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.051943282116209445</v>
+        <v>0.05198373745664746</v>
       </c>
     </row>
     <row r="129">
@@ -3523,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="n">
-        <v>16.946665943386236</v>
+        <v>16.925985856230046</v>
       </c>
     </row>
     <row r="130">
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>16.358770272427876</v>
+        <v>16.34546521492198</v>
       </c>
     </row>
     <row r="131">
@@ -3545,7 +3545,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>7199.414490810045</v>
+        <v>7199.414490810046</v>
       </c>
     </row>
     <row r="132">
@@ -3556,7 +3556,7 @@
         <v>127</v>
       </c>
       <c r="C132" t="n">
-        <v>6274.189210039077</v>
+        <v>6274.189210039076</v>
       </c>
     </row>
     <row r="133">
@@ -3567,7 +3567,7 @@
         <v>127</v>
       </c>
       <c r="C133" t="n">
-        <v>2498.201492052516</v>
+        <v>2492.9419831143896</v>
       </c>
     </row>
     <row r="134">
@@ -3578,7 +3578,7 @@
         <v>127</v>
       </c>
       <c r="C134" t="n">
-        <v>2635.2355173584415</v>
+        <v>2629.6073741437413</v>
       </c>
     </row>
     <row r="135">
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>300.6522923288367</v>
+        <v>300.709640849537</v>
       </c>
     </row>
     <row r="138">
@@ -3610,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>300.6522923288367</v>
+        <v>300.709640849537</v>
       </c>
     </row>
     <row r="139">
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>0.47098741016542356</v>
+        <v>0.4710772495976534</v>
       </c>
     </row>
     <row r="140">
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.47098741016542356</v>
+        <v>0.4710772495976534</v>
       </c>
     </row>
     <row r="141">
@@ -3643,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2839283139277102</v>
+        <v>0.28381005869129133</v>
       </c>
     </row>
     <row r="142">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>0.27814042253924054</v>
+        <v>0.2770923347751406</v>
       </c>
     </row>
     <row r="143">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>0.027781168175620274</v>
+        <v>0.027688831743487977</v>
       </c>
     </row>
     <row r="144">
@@ -3676,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0.027722049497676853</v>
+        <v>0.027613318477303944</v>
       </c>
     </row>
     <row r="145">
@@ -3687,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>10.220171885244017</v>
+        <v>10.249983145570576</v>
       </c>
     </row>
     <row r="146">
@@ -3698,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>10.033183966522717</v>
+        <v>10.034735050149424</v>
       </c>
     </row>
     <row r="147">
@@ -3709,7 +3709,7 @@
         <v>127</v>
       </c>
       <c r="C147" t="n">
-        <v>4123.212009503034</v>
+        <v>4111.075567467523</v>
       </c>
     </row>
     <row r="148">
@@ -3720,7 +3720,7 @@
         <v>127</v>
       </c>
       <c r="C148" t="n">
-        <v>4114.437762094095</v>
+        <v>4113.910270355394</v>
       </c>
     </row>
     <row r="149">
@@ -3731,7 +3731,7 @@
         <v>127</v>
       </c>
       <c r="C149" t="n">
-        <v>4123.212009503034</v>
+        <v>4111.075567467523</v>
       </c>
     </row>
     <row r="150">
@@ -3742,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>4114.437762094095</v>
+        <v>4113.910270355394</v>
       </c>
     </row>
     <row r="151">
@@ -3807,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3856814585256603</v>
+        <v>0.38568010930415625</v>
       </c>
     </row>
     <row r="158">
@@ -3818,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>0.38455552121880326</v>
+        <v>0.38455643439810305</v>
       </c>
     </row>
     <row r="159">
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02900339153589655</v>
+        <v>0.0289004270316711</v>
       </c>
     </row>
     <row r="160">
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.028977945973764636</v>
+        <v>0.02887130319304866</v>
       </c>
     </row>
     <row r="161">
@@ -3851,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>13.297805466933582</v>
+        <v>13.34513531172052</v>
       </c>
     </row>
     <row r="162">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>13.270627309712117</v>
+        <v>13.319677044945191</v>
       </c>
     </row>
     <row r="163">
@@ -3873,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>628.2043632655409</v>
+        <v>622.4272523002735</v>
       </c>
     </row>
     <row r="164">
@@ -3884,7 +3884,7 @@
         <v>127</v>
       </c>
       <c r="C164" t="n">
-        <v>324.09207079280316</v>
+        <v>363.33447630716455</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         <v>127</v>
       </c>
       <c r="C165" t="n">
-        <v>3103.499654276216</v>
+        <v>3097.9974814538773</v>
       </c>
     </row>
     <row r="166">
@@ -3906,7 +3906,7 @@
         <v>127</v>
       </c>
       <c r="C166" t="n">
-        <v>3101.099872300488</v>
+        <v>3095.219934335915</v>
       </c>
     </row>
     <row r="167">
@@ -3971,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5005576881372822</v>
+        <v>0.5005543293882089</v>
       </c>
     </row>
     <row r="174">
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4978814080775808</v>
+        <v>0.4978793714029333</v>
       </c>
     </row>
     <row r="175">
@@ -3993,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03198024910838306</v>
+        <v>0.031975637198502584</v>
       </c>
     </row>
     <row r="176">
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03188244162106536</v>
+        <v>0.03186801057618633</v>
       </c>
     </row>
     <row r="177">
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>15.65208846375339</v>
+        <v>15.654240954786971</v>
       </c>
     </row>
     <row r="178">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>15.616163090489929</v>
+        <v>15.623170772228196</v>
       </c>
     </row>
     <row r="179">
@@ -4037,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="C179" t="n">
-        <v>2651.225065368839</v>
+        <v>2650.8427290389095</v>
       </c>
     </row>
     <row r="180">
@@ -4048,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="C180" t="n">
-        <v>2643.1166337841255</v>
+        <v>2641.920271999291</v>
       </c>
     </row>
     <row r="181">
@@ -4059,7 +4059,7 @@
         <v>127</v>
       </c>
       <c r="C181" t="n">
-        <v>2651.225065368839</v>
+        <v>2650.8427290389095</v>
       </c>
     </row>
     <row r="182">
@@ -4070,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="n">
-        <v>2643.1166337841255</v>
+        <v>2641.920271999291</v>
       </c>
     </row>
     <row r="183">
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0.38209664649909336</v>
+        <v>0.3820956988810425</v>
       </c>
     </row>
     <row r="190">
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0.38190293888847776</v>
+        <v>0.38190250471839676</v>
       </c>
     </row>
     <row r="191">
@@ -4157,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0.028922376761274807</v>
+        <v>0.02880752490298869</v>
       </c>
     </row>
     <row r="192">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.028917999076113008</v>
+        <v>0.028802517622337157</v>
       </c>
     </row>
     <row r="193">
@@ -4179,7 +4179,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>13.211108120640212</v>
+        <v>13.263746197140362</v>
       </c>
     </row>
     <row r="194">
@@ -4190,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>13.206409540414542</v>
+        <v>13.259344538069849</v>
       </c>
     </row>
     <row r="195">
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="n">
-        <v>281.6662232160391</v>
+        <v>273.2812186698377</v>
       </c>
     </row>
     <row r="196">
@@ -4212,7 +4212,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="n">
-        <v>221.0248583803571</v>
+        <v>212.38146621906915</v>
       </c>
     </row>
     <row r="197">
@@ -4223,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="C197" t="n">
-        <v>3095.8591158240856</v>
+        <v>3089.137384297053</v>
       </c>
     </row>
     <row r="198">
@@ -4234,7 +4234,7 @@
         <v>127</v>
       </c>
       <c r="C198" t="n">
-        <v>3095.446254442118</v>
+        <v>3088.659838801666</v>
       </c>
     </row>
     <row r="199">
@@ -4255,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="C201" t="n">
-        <v>102.97004601637084</v>
+        <v>102.98505939825844</v>
       </c>
     </row>
     <row r="202">
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>0.15569325914757542</v>
+        <v>0.15571595975272554</v>
       </c>
     </row>
     <row r="204">
@@ -4299,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="n">
-        <v>1.7500493118937799</v>
+        <v>1.7495363354574152</v>
       </c>
     </row>
     <row r="206">
@@ -4310,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="C206" t="n">
-        <v>1.6266499157861927</v>
+        <v>1.6266687332735716</v>
       </c>
     </row>
     <row r="207">
@@ -4321,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>0.11687977867246</v>
+        <v>0.11677965706815047</v>
       </c>
     </row>
     <row r="208">
@@ -4332,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.11006920039704465</v>
+        <v>0.10998951679057183</v>
       </c>
     </row>
     <row r="209">
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="C209" t="n">
-        <v>14.973071747492437</v>
+        <v>14.981516296424966</v>
       </c>
     </row>
     <row r="210">
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="C210" t="n">
-        <v>14.778429478169155</v>
+        <v>14.789307024330958</v>
       </c>
     </row>
     <row r="211">
@@ -4365,7 +4365,7 @@
         <v>127</v>
       </c>
       <c r="C211" t="n">
-        <v>-574.3158878894609</v>
+        <v>-574.4400889358869</v>
       </c>
     </row>
     <row r="212">
@@ -4387,7 +4387,7 @@
         <v>127</v>
       </c>
       <c r="C213" t="n">
-        <v>1883.9673325094122</v>
+        <v>1883.3039835841287</v>
       </c>
     </row>
     <row r="214">
@@ -4469,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1046.2679407966766</v>
+        <v>1045.1669211272138</v>
       </c>
     </row>
     <row r="7">
@@ -4534,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1197.516346444729</v>
+        <v>1196.3648294948575</v>
       </c>
     </row>
     <row r="14">
@@ -4599,7 +4599,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1803.9515389287099</v>
+        <v>1802.5932352326627</v>
       </c>
     </row>
     <row r="21">
@@ -4659,7 +4659,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1893.5473708161653</v>
+        <v>1892.3803684433326</v>
       </c>
     </row>
     <row r="27">
@@ -4779,7 +4779,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>58.57002555699083</v>
+        <v>58.985501982759175</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>113.85102160106209</v>
+        <v>114.6586431630308</v>
       </c>
     </row>
     <row r="9">
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>92.60734168718157</v>
+        <v>93.2642675969485</v>
       </c>
     </row>
     <row r="13">
@@ -4839,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>180.01427109819312</v>
+        <v>181.29123290983506</v>
       </c>
     </row>
     <row r="14">
@@ -5066,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>92.60734168718157</v>
+        <v>93.2642675969485</v>
       </c>
     </row>
     <row r="39">
@@ -5077,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>180.01427109819312</v>
+        <v>181.29123290983506</v>
       </c>
     </row>
     <row r="40">
@@ -5088,7 +5088,7 @@
         <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>2.1056347250930165</v>
+        <v>2.1135711927040406</v>
       </c>
     </row>
     <row r="41">
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>2.756347207847761</v>
+        <v>2.7564946270357096</v>
       </c>
     </row>
     <row r="45">
@@ -5164,7 +5164,7 @@
         <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0545582056700527</v>
+        <v>2.0546467201241585</v>
       </c>
     </row>
     <row r="49">
@@ -5202,7 +5202,7 @@
         <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.05455820567005243</v>
+        <v>-0.0546467201241585</v>
       </c>
     </row>
     <row r="53">
@@ -5240,7 +5240,7 @@
         <v>21</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.7563472078477611</v>
+        <v>-0.7564946270357094</v>
       </c>
     </row>
     <row r="57">
@@ -5278,7 +5278,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.10563472509301652</v>
+        <v>-0.11357119270404037</v>
       </c>
     </row>
     <row r="61">
@@ -5304,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>44.28256031862921</v>
+        <v>44.28905182287885</v>
       </c>
     </row>
     <row r="65">
@@ -5315,7 +5315,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>86.07841098653626</v>
+        <v>86.09102946131956</v>
       </c>
     </row>
     <row r="66">
@@ -5331,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>62.62499737921008</v>
+        <v>62.63417775256012</v>
       </c>
     </row>
     <row r="68">
@@ -5342,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>121.73325624468481</v>
+        <v>121.75110146285984</v>
       </c>
     </row>
     <row r="69">
@@ -5369,7 +5369,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>77.69034152770988</v>
+        <v>77.7017303719536</v>
       </c>
     </row>
     <row r="72">
@@ -5380,7 +5380,7 @@
         <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>151.0179424944684</v>
+        <v>151.04008063662687</v>
       </c>
     </row>
     <row r="73">
@@ -5417,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>62.62499737921008</v>
+        <v>62.63417775256012</v>
       </c>
     </row>
     <row r="78">
@@ -5428,7 +5428,7 @@
         <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>121.73325624468481</v>
+        <v>121.75110146285984</v>
       </c>
     </row>
     <row r="79">
@@ -5439,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>1.5366101388605968</v>
+        <v>1.5367338490713742</v>
       </c>
     </row>
     <row r="80">
@@ -5455,7 +5455,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>77.69034152770988</v>
+        <v>77.7017303719536</v>
       </c>
     </row>
     <row r="82">
@@ -5466,7 +5466,7 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>151.0179424944684</v>
+        <v>151.04008063662687</v>
       </c>
     </row>
     <row r="83">
@@ -5477,7 +5477,7 @@
         <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>1.5366101388605968</v>
+        <v>1.5367338490713742</v>
       </c>
     </row>
   </sheetData>
